--- a/May15thSeleniumBatch/target/test-classes/testData/AppData.xlsx
+++ b/May15thSeleniumBatch/target/test-classes/testData/AppData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workplaces\SeleniumBasic_Workspace\May15thSeleniumBatch\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A9D3C0-8018-4CBC-B453-A0F1C88AD4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78442472-70CA-4863-AF17-BC28CE2D0721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>AppUrl</t>
   </si>
@@ -77,15 +77,26 @@
     <t>https://online.actitime.com/uts/login.do</t>
   </si>
   <si>
-    <t>true</t>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>dashboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -139,17 +150,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -439,9 +462,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -506,19 +529,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ACBD41-6363-4124-897B-AA86AF804A65}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.21875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -576,6 +599,22 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
